--- a/06_振り返り/05_開発体験シート.xlsx
+++ b/06_振り返り/05_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F02E58-0E56-4D95-A373-E866D44D7CD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475C4934-93F0-427C-9AD2-DE2FE262490F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
     <t>実装</t>
     <rPh sb="0" eb="2">
@@ -1739,7 +1739,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1791,7 +1791,9 @@
       <c r="E9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="G9" s="38"/>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
@@ -1810,7 +1812,9 @@
       <c r="E10" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
@@ -1829,7 +1833,9 @@
       <c r="E11" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="G11" s="40"/>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
@@ -1850,7 +1856,9 @@
       <c r="E12" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="G12" s="42"/>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
@@ -1869,11 +1877,13 @@
       <c r="E13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G13" s="39"/>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I13" s="9"/>
     </row>
@@ -1907,7 +1917,9 @@
       <c r="E15" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="G15" s="42"/>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
@@ -1926,11 +1938,13 @@
       <c r="E16" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I16" s="9"/>
     </row>
@@ -1964,11 +1978,13 @@
       <c r="E18" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="G18" s="38"/>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I18" s="4"/>
     </row>
@@ -1981,7 +1997,9 @@
       <c r="E19" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="G19" s="40"/>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2002,7 +2020,9 @@
       <c r="E20" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="G20" s="42"/>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
@@ -2019,7 +2039,9 @@
       <c r="E21" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G21" s="39"/>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2038,7 +2060,9 @@
       <c r="E22" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="39"/>
+      <c r="F22" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G22" s="39"/>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2055,7 +2079,9 @@
       <c r="E23" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="39"/>
+      <c r="F23" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G23" s="39"/>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
@@ -2074,7 +2100,9 @@
       <c r="E24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="39"/>
+      <c r="F24" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G24" s="39"/>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2091,7 +2119,9 @@
       <c r="E25" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="40"/>
+      <c r="F25" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="G25" s="40"/>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2112,7 +2142,9 @@
       <c r="E26" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="G26" s="42"/>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
@@ -2129,7 +2161,9 @@
       <c r="E27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G27" s="39"/>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2146,7 +2180,9 @@
       <c r="E28" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="40"/>
+      <c r="F28" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="G28" s="40"/>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2167,7 +2203,9 @@
       <c r="E29" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="G29" s="42"/>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
@@ -2184,7 +2222,9 @@
       <c r="E30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="39"/>
+      <c r="F30" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G30" s="39"/>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2201,7 +2241,9 @@
       <c r="E31" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="39"/>
+      <c r="F31" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G31" s="39"/>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2220,7 +2262,9 @@
       <c r="E32" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="39"/>
+      <c r="F32" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
@@ -2237,7 +2281,9 @@
       <c r="E33" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="39"/>
+      <c r="F33" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2254,7 +2300,9 @@
       <c r="E34" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="39"/>
+      <c r="F34" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G34" s="39"/>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2273,7 +2321,9 @@
       <c r="E35" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="41" t="s">
+        <v>57</v>
+      </c>
       <c r="G35" s="41"/>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2290,7 +2340,9 @@
       <c r="E36" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="39"/>
+      <c r="F36" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="G36" s="39"/>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2307,7 +2359,9 @@
       <c r="E37" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="40"/>
+      <c r="F37" s="40" t="s">
+        <v>59</v>
+      </c>
       <c r="G37" s="40"/>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2350,8 +2404,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -2367,8 +2427,6 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2419,18 +2477,6 @@
     <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2533,12 +2579,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
   <ds:schemaRefs>
@@ -2548,14 +2588,28 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0BD58DB-5999-4AD5-93BD-5F0C74063737}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/06_振り返り/05_開発体験シート.xlsx
+++ b/06_振り返り/05_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475C4934-93F0-427C-9AD2-DE2FE262490F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2E50D6-9D59-455B-9BEE-731E4B59840B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1736,10 +1736,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2021,7 +2021,7 @@
         <v>58</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="51" t="str">
@@ -2040,7 +2040,7 @@
         <v>58</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="39"/>
       <c r="H21" s="39" t="str">
@@ -2404,12 +2404,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2579,6 +2573,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
   <ds:schemaRefs>
@@ -2588,15 +2588,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2612,4 +2603,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/06_振り返り/05_開発体験シート.xlsx
+++ b/06_振り返り/05_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2E50D6-9D59-455B-9BEE-731E4B59840B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A465BC4C-B5BC-4088-9FDF-7B3A82DA854B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="60">
   <si>
     <t>実装</t>
     <rPh sb="0" eb="2">
@@ -1736,10 +1736,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1794,7 +1794,9 @@
       <c r="F9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -1815,7 +1817,9 @@
       <c r="F10" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -1836,7 +1840,9 @@
       <c r="F11" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -1859,7 +1865,9 @@
       <c r="F12" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -1880,7 +1888,9 @@
       <c r="F13" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -1920,10 +1930,12 @@
       <c r="F15" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I15" s="12"/>
     </row>
@@ -1941,7 +1953,9 @@
       <c r="F16" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -1981,7 +1995,9 @@
       <c r="F18" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2000,7 +2016,9 @@
       <c r="F19" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2021,9 +2039,11 @@
         <v>58</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="42"/>
+        <v>58</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2040,9 +2060,11 @@
         <v>58</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="39"/>
+        <v>58</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2063,7 +2085,9 @@
       <c r="F22" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2082,7 +2106,9 @@
       <c r="F23" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="39"/>
+      <c r="G23" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2103,7 +2129,9 @@
       <c r="F24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2122,7 +2150,9 @@
       <c r="F25" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2145,7 +2175,9 @@
       <c r="F26" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2164,7 +2196,9 @@
       <c r="F27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="39"/>
+      <c r="G27" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2183,7 +2217,9 @@
       <c r="F28" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2206,7 +2242,9 @@
       <c r="F29" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -2225,7 +2263,9 @@
       <c r="F30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2244,7 +2284,9 @@
       <c r="F31" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2265,7 +2307,9 @@
       <c r="F32" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="39"/>
+      <c r="G32" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -2284,7 +2328,9 @@
       <c r="F33" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2303,7 +2349,9 @@
       <c r="F34" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="39"/>
+      <c r="G34" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2324,7 +2372,9 @@
       <c r="F35" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41" t="s">
+        <v>57</v>
+      </c>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2343,10 +2393,12 @@
       <c r="F36" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>○</v>
       </c>
       <c r="I36" s="9"/>
     </row>
@@ -2362,10 +2414,12 @@
       <c r="F37" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="40"/>
+      <c r="G37" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>○</v>
       </c>
       <c r="I37" s="13"/>
     </row>
